--- a/Wk 9 asignment/Penaetal_2016_data.xlsx
+++ b/Wk 9 asignment/Penaetal_2016_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Johnson.1\Wk 9 asignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133DB23A-443A-4302-BA55-B65FF6948319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA79A6F-C9CF-4A65-8CC4-7A303695761D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5271,7 +5271,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -5304,6 +5304,8 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -5648,7 +5650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
@@ -25855,7 +25857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -42539,14 +42541,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:JX46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="BS1" sqref="BS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6328125" bestFit="1" customWidth="1"/>
@@ -42620,7 +42622,7 @@
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="32" t="s">
         <v>303</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -42835,7 +42837,7 @@
       <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="17">
@@ -43050,7 +43052,7 @@
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="17">
@@ -43265,7 +43267,7 @@
       <c r="A4" t="s">
         <v>372</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="17">
@@ -43480,7 +43482,7 @@
       <c r="A5" t="s">
         <v>372</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="17">
@@ -43695,7 +43697,7 @@
       <c r="A6" t="s">
         <v>109</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="17">
@@ -43910,7 +43912,7 @@
       <c r="A7" t="s">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="17">
@@ -44125,7 +44127,7 @@
       <c r="A8" t="s">
         <v>373</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="17">
@@ -44340,7 +44342,7 @@
       <c r="A9" t="s">
         <v>373</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="17">
@@ -44555,7 +44557,7 @@
       <c r="A10" t="s">
         <v>374</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="17">
@@ -44770,7 +44772,7 @@
       <c r="A11" t="s">
         <v>374</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="17">
@@ -44985,7 +44987,7 @@
       <c r="A12" t="s">
         <v>375</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="17">
@@ -45200,7 +45202,7 @@
       <c r="A13" t="s">
         <v>375</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="17">
@@ -45415,7 +45417,7 @@
       <c r="A14" t="s">
         <v>375</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="17">
@@ -45630,7 +45632,7 @@
       <c r="A15" t="s">
         <v>376</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="17">
@@ -45845,7 +45847,7 @@
       <c r="A16" t="s">
         <v>376</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="17">
@@ -46060,7 +46062,7 @@
       <c r="A17" t="s">
         <v>376</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="17">
@@ -46275,7 +46277,7 @@
       <c r="A18" t="s">
         <v>377</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="17">
@@ -46703,7 +46705,7 @@
       <c r="A19" t="s">
         <v>377</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="17">
@@ -46918,7 +46920,7 @@
       <c r="A20" t="s">
         <v>378</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="17">
@@ -47133,7 +47135,7 @@
       <c r="A21" t="s">
         <v>378</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="17">
@@ -47348,7 +47350,7 @@
       <c r="A22" t="s">
         <v>379</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="17">
@@ -47563,7 +47565,7 @@
       <c r="A23" t="s">
         <v>379</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="17">
@@ -47778,7 +47780,7 @@
       <c r="A24" t="s">
         <v>380</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C24" s="17">
@@ -47993,7 +47995,7 @@
       <c r="A25" t="s">
         <v>380</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C25" s="17">
@@ -48208,7 +48210,7 @@
       <c r="A26" t="s">
         <v>382</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C26" s="17">
@@ -48636,7 +48638,7 @@
       <c r="A27" t="s">
         <v>382</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C27" s="17">
@@ -48851,7 +48853,7 @@
       <c r="A28" t="s">
         <v>172</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C28" s="17">
@@ -49066,7 +49068,7 @@
       <c r="A29" t="s">
         <v>172</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C29" s="17">
@@ -49281,7 +49283,7 @@
       <c r="A30" t="s">
         <v>383</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C30" s="17">
@@ -49496,7 +49498,7 @@
       <c r="A31" t="s">
         <v>383</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C31" s="17">
@@ -49711,7 +49713,7 @@
       <c r="A32" t="s">
         <v>233</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C32" s="17">
@@ -50139,7 +50141,7 @@
       <c r="A33" t="s">
         <v>233</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C33" s="17">
@@ -50354,7 +50356,7 @@
       <c r="A34" t="s">
         <v>384</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C34" s="17">
@@ -50569,7 +50571,7 @@
       <c r="A35" t="s">
         <v>384</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C35" s="17">
@@ -50784,7 +50786,7 @@
       <c r="A36" t="s">
         <v>384</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C36" s="17">
@@ -50999,7 +51001,7 @@
       <c r="A37" t="s">
         <v>385</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C37" s="17">
@@ -51214,7 +51216,7 @@
       <c r="A38" t="s">
         <v>385</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C38" s="17">
@@ -51429,7 +51431,7 @@
       <c r="A39" t="s">
         <v>386</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C39" s="24">
@@ -51857,7 +51859,7 @@
       <c r="A40" t="s">
         <v>386</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C40" s="17">
@@ -52072,7 +52074,7 @@
       <c r="A41" t="s">
         <v>387</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C41" s="17">
@@ -52287,7 +52289,7 @@
       <c r="A42" t="s">
         <v>387</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C42" s="17">
@@ -52502,7 +52504,7 @@
       <c r="A43" t="s">
         <v>387</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C43" s="17">
@@ -52717,7 +52719,7 @@
       <c r="A44" t="s">
         <v>388</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C44" s="17">
@@ -52932,7 +52934,7 @@
       <c r="A45" t="s">
         <v>388</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C45" s="17">
@@ -53147,7 +53149,7 @@
       <c r="A46" t="s">
         <v>388</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="33" t="s">
         <v>381</v>
       </c>
       <c r="C46" s="17">
@@ -53360,6 +53362,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -58991,7 +58994,7 @@
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
